--- a/medicine/Mort/Mausolée_de_l'Aga_Khan/Mausolée_de_l'Aga_Khan.xlsx
+++ b/medicine/Mort/Mausolée_de_l'Aga_Khan/Mausolée_de_l'Aga_Khan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e_de_l%27Aga_Khan</t>
+          <t>Mausolée_de_l'Aga_Khan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mausolée de l'Aga Khan est un monument funéraire d'Égypte dans lequel repose l'Aga Khan III depuis 1959, deux ans après sa mort.
 Sa femme, la Bégum, respecte sa volonté en faisant élever un mausolée à sa mémoire à Assouan.
-Le mausolée surplombe la ville d'Assouan sur la rive opposée du Nil[1].
+Le mausolée surplombe la ville d'Assouan sur la rive opposée du Nil.
 			Le mausolée vu depuis la rive droite du Nil.
 </t>
         </is>
